--- a/data-unused/rayner.hay.xlsx
+++ b/data-unused/rayner.hay.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-unused\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4167863E-C335-4030-87B2-3E12A2DE8296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="14208" windowHeight="9372"/>
+    <workbookView xWindow="2180" yWindow="1140" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,14 +130,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,7 +178,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -241,7 +250,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -414,16 +423,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -440,7 +449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -457,7 +466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -474,7 +483,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -491,7 +500,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -508,7 +517,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -525,7 +534,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -542,7 +551,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -559,7 +568,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -576,7 +585,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -593,7 +602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -610,7 +619,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -627,7 +636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4</v>
       </c>
@@ -644,7 +653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>5</v>
       </c>
@@ -661,7 +670,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>6</v>
       </c>
@@ -678,7 +687,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>7</v>
       </c>
@@ -695,7 +704,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>8</v>
       </c>
@@ -712,7 +721,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
@@ -729,7 +738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -746,7 +755,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3</v>
       </c>
@@ -763,7 +772,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4</v>
       </c>
@@ -780,7 +789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>5</v>
       </c>
@@ -797,7 +806,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>6</v>
       </c>
@@ -814,7 +823,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>7</v>
       </c>
@@ -831,7 +840,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>8</v>
       </c>
@@ -848,7 +857,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1</v>
       </c>
@@ -865,7 +874,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2</v>
       </c>
@@ -882,7 +891,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3</v>
       </c>
@@ -899,7 +908,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4</v>
       </c>
@@ -916,7 +925,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>5</v>
       </c>
@@ -933,7 +942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>6</v>
       </c>
@@ -950,7 +959,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>7</v>
       </c>
@@ -967,7 +976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8</v>
       </c>
@@ -984,7 +993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1001,7 +1010,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1018,7 +1027,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1035,7 +1044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1052,7 +1061,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>6</v>
       </c>
@@ -1086,7 +1095,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>7</v>
       </c>
@@ -1103,7 +1112,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>8</v>
       </c>
@@ -1120,7 +1129,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1137,7 +1146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1154,7 +1163,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1171,7 +1180,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1188,7 +1197,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1205,7 +1214,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>6</v>
       </c>
@@ -1222,7 +1231,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>7</v>
       </c>
@@ -1239,7 +1248,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>8</v>
       </c>
@@ -1262,24 +1271,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
